--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2789.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2789.xlsx
@@ -354,7 +354,7 @@
         <v>2.433282516926915</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368737334810989</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2789.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2789.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169101536122763</v>
+        <v>1.137263894081116</v>
       </c>
       <c r="B1">
-        <v>2.433282516926915</v>
+        <v>1.568619132041931</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.720923662185669</v>
       </c>
       <c r="D1">
-        <v>2.368737334810989</v>
+        <v>4.178527355194092</v>
       </c>
       <c r="E1">
-        <v>1.232198434026191</v>
+        <v>1.681321740150452</v>
       </c>
     </row>
   </sheetData>
